--- a/natmiOut/OldD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>S100a8</t>
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6560507774713</v>
+        <v>1985.706367333333</v>
       </c>
       <c r="H2">
-        <v>11.6560507774713</v>
+        <v>5957.119102000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N2">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q2">
-        <v>173.4847395431441</v>
+        <v>44654.26229932204</v>
       </c>
       <c r="R2">
-        <v>173.4847395431441</v>
+        <v>401888.3606938985</v>
       </c>
       <c r="S2">
-        <v>0.3537858141378383</v>
+        <v>0.4519957071128116</v>
       </c>
       <c r="T2">
-        <v>0.3537858141378383</v>
+        <v>0.4519957071128115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6560507774713</v>
+        <v>1985.706367333333</v>
       </c>
       <c r="H3">
-        <v>11.6560507774713</v>
+        <v>5957.119102000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N3">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q3">
-        <v>270.5671678981231</v>
+        <v>46203.62094476996</v>
       </c>
       <c r="R3">
-        <v>270.5671678981231</v>
+        <v>415832.5885029297</v>
       </c>
       <c r="S3">
-        <v>0.5517651064058074</v>
+        <v>0.4676784979699614</v>
       </c>
       <c r="T3">
-        <v>0.5517651064058074</v>
+        <v>0.4676784979699614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6560507774713</v>
+        <v>1985.706367333333</v>
       </c>
       <c r="H4">
-        <v>11.6560507774713</v>
+        <v>5957.119102000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9998048086715072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.97344460067463</v>
+        <v>3.986685666666666</v>
       </c>
       <c r="N4">
-        <v>3.97344460067463</v>
+        <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124609</v>
       </c>
       <c r="P4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124607</v>
       </c>
       <c r="Q4">
-        <v>46.31467202693266</v>
+        <v>7916.387112856534</v>
       </c>
       <c r="R4">
-        <v>46.31467202693266</v>
+        <v>71247.48401570882</v>
       </c>
       <c r="S4">
-        <v>0.09444907945635425</v>
+        <v>0.08013060358873432</v>
       </c>
       <c r="T4">
-        <v>0.09444907945635425</v>
+        <v>0.08013060358873431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3876683333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.163005</v>
+      </c>
+      <c r="I5">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="J5">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>22.48784766666667</v>
+      </c>
+      <c r="N5">
+        <v>67.463543</v>
+      </c>
+      <c r="O5">
+        <v>0.4520839499795984</v>
+      </c>
+      <c r="P5">
+        <v>0.4520839499795983</v>
+      </c>
+      <c r="Q5">
+        <v>8.717826425190555</v>
+      </c>
+      <c r="R5">
+        <v>78.46043782671501</v>
+      </c>
+      <c r="S5">
+        <v>8.824286678677445E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.824286678677442E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3876683333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.163005</v>
+      </c>
+      <c r="I6">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="J6">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>23.26810333333333</v>
+      </c>
+      <c r="N6">
+        <v>69.80431</v>
+      </c>
+      <c r="O6">
+        <v>0.4677698025791556</v>
+      </c>
+      <c r="P6">
+        <v>0.4677698025791556</v>
+      </c>
+      <c r="Q6">
+        <v>9.02030683906111</v>
+      </c>
+      <c r="R6">
+        <v>81.18276155155</v>
+      </c>
+      <c r="S6">
+        <v>9.130460919422372E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.130460919422369E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3876683333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.163005</v>
+      </c>
+      <c r="I7">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="J7">
+        <v>0.0001951913284927648</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.986685666666666</v>
+      </c>
+      <c r="N7">
+        <v>11.960057</v>
+      </c>
+      <c r="O7">
+        <v>0.08014624744124609</v>
+      </c>
+      <c r="P7">
+        <v>0.08014624744124607</v>
+      </c>
+      <c r="Q7">
+        <v>1.545511787920556</v>
+      </c>
+      <c r="R7">
+        <v>13.909606091285</v>
+      </c>
+      <c r="S7">
+        <v>1.564385251176668E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.564385251176667E-05</v>
       </c>
     </row>
   </sheetData>
